--- a/work.xlsx
+++ b/work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ESXi</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>VM Network</t>
-  </si>
-  <si>
-    <t>Success</t>
   </si>
   <si>
     <t>centos_7.2</t>
@@ -511,7 +508,7 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,28 +575,28 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>17</v>
@@ -608,9 +605,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="13"/>
-      <c r="N2" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="N2" s="14"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
